--- a/Latent/data/testdata.xlsx
+++ b/Latent/data/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="setting" sheetId="4" r:id="rId1"/>
@@ -513,8 +513,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -641,7 +655,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="129">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -699,6 +713,13 @@
     <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -756,6 +777,13 @@
     <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1087,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1321,9 +1349,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1853,12 +1881,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
